--- a/crawling_data/comments1_5.xlsx
+++ b/crawling_data/comments1_5.xlsx
@@ -211,40 +211,40 @@
     <t>[0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0, 14, 3]</t>
+    <t>[2, 0, 0, 16, 3]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 1, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[3, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[5, 0, 0, 1, 0]</t>
   </si>
   <si>
     <t>[1, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>[4, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[3, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[5, 0, 0, 0, 0]</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['초급과 중급사이..? 그자리에 고급을 쓸 마음은 없는거고? 그냥 싸게 일해줄 사람을 찾는거지 이런 마인드면 앞으로도 개발자는 계속 부족할것', '마인드봐라 초급과 중급사이 ㅋㅋㅋㅋㅋ 그냥 사람은 필요한데 싸게 부려먹고싶다는 중소기업은 흔한 거지근성이다. 니네 그 심보 안버리면 계속 인력난있을 거다. 직원은 돈에 쪼들리는데 사장과 낙하산으로 앉은 사장 가족 혹은 지인은 외제차 끌고다니고...', '상위 10%의 개발자는 이미 우리나라 떠났지 ㅋ애초에 알고리즘 문제 정답 비율만 봐도 외국이랑 우리나라 거진 10%차이나는데애초에 누구나 할수잇다는 생각 자체가 글러먹은거임상위 개발자 차이는 외국과 극명하다 심각할 정도로2015년 부터 그 조짐은 있었는데 지금은 손쓰기 늦었지. 한 20년 넘게 꾸준한 정책이 잇어야 복구 가능할거라 본다', '내일배움카드 계좌돈 뜯어내려고 코딩교육 업자들 넘처남 목표는 고용노동부 세금 뜯어내는거지 코딩교육이 거기 오는 애들 수준도 코딩 이해할 머리 가진 사람들은 애초에 오지도 않고', '정부의 정책. 공장에서 코더 양산', '참 바보같은 고민들만 했군요! 개발자가 모자라게 된 이유의 첫번째도 두번째도 모두 처우가 열악했기 때문입니다. 돈만 많이 줘보세요~ 교육기관 만들고자시고 할 필요따위 없습니다. 알아서들 날을 새서라도 독학해서 뛰어들겁니다. 참 한심하군요!', '양성하면 뭐하냐? 기업들이 외주줘서 하청만들어 단가 후려치는데... 직장이 안정적이어야 사람이오지... 지금처럼해서는 인력 안늘어난다. 누구 인생 망치려고.', '40넘으면 폐물 취급하는 풍토가 이 사단의 시작 아닌가. 이제 좀 나아질려나 .', '그러니까 중급같은 초급 찾는다는 말이지? 이게 말이여 방구여.', '개발자는 40대 중반까지만 대우받는거고 50대부터는 완전 쓰레기통 취급에 정년 이후 뭐할까 고민. 이게 우리나라 it 현실임.. 그러니 우리나라에서는 아직까지 전문직이 대우받음. 하지만 국가경쟁력은 하위.', '신입가격에 혼자서 일할수 있는 중급 개발자를 원하니 인력이 없지 신입에 투자할 맘은 없구 단가는 깍고싶고 그러니 인력이 안구해 지는거다 인력 단가만 높게 쳐주면 의사 변호사 처럼 인력은 자연스레 몰려 온다', '싸구려 소모품 취급하니까 있던 사람들도 떠나죠.', '초급과 중급사이..보다, "무릎과 무릎사이" 를 찾는게 빠를듯 싶다...', '초급~중급 모자르다? 값싼 인력만 찾고 있네. 야근수당도 없다. 그냥 갑을병정 중. 잘해야 을이고.. 처우 열악하다.', 'IT쪽 고급개발자들도 너무 근무환경이 열악하다. 매일 9 to 8~9 인데, 몇 년 하다가 그만두고 그냥 다른 일로 빠지는 경우 수두룩한다.', '미취업자 실업자 개나 소나 단기간에 교육시켜 써먹으려하니 양성이 되겠냐? 싼 임금에 중소기업 가봤자 성과 안나와 입사 퇴사만 반복하고 실업 수당이나 퍼주고.', '한마디로 헛소리만 쓰고 있네. 문제는 현댸도 기아도 아닌 대우야! 멍충이들아! 대우만 잘해줘봐라. 개발인력 남아돈다.', '마에스트로? ㅇ병', '그동안 쭉 그만은 정부지원금들이 대학에서 다 없어졌네... 대학이 장사를 하니까 그렇지요.... 에휴....', '장기적관점에서방법은하나뿐이다. 초중고 교육에 영어만큼 토딩이중요해지면된다. 실제로 영어보다 더 중요하다.', '여러분 개발자 돈 많이주고 좋아요. 컴퓨터로 할 수 있는 직업중에 최고 멋있는 직업 입니다.']</t>
-  </si>
-  <si>
-    <t>['어쩌라고 , 알체라랑 상관없자나']</t>
+    <t>[('초급과 중급사이..? 그자리에 고급을 쓸 마음은 없는거고? 그냥 싸게 일해줄 사람을 찾는거지 이런 마인드면 앞으로도 개발자는 계속 부족할것', 38, 0), ('마인드봐라 초급과 중급사이 ㅋㅋㅋㅋㅋ 그냥 사람은 필요한데 싸게 부려먹고싶다는 중소기업은 흔한 거지근성이다. 니네 그 심보 안버리면 계속 인력난있을 거다. 직원은 돈에 쪼들리는데 사장과 낙하산으로 앉은 사장 가족 혹은 지인은 외제차 끌고다니고...', 21, 0), ('내일배움카드 계좌돈 뜯어내려고 코딩교육 업자들 넘처남 목표는 고용노동부 세금 뜯어내는거지 코딩교육이 거기 오는 애들 수준도 코딩 이해할 머리 가진 사람들은 애초에 오지도 않고', 12, 0), ('상위 10%의 개발자는 이미 우리나라 떠났지 ㅋ애초에 알고리즘 문제 정답 비율만 봐도 외국이랑 우리나라 거진 10%차이나는데애초에 누구나 할수잇다는 생각 자체가 글러먹은거임상위 개발자 차이는 외국과 극명하다 심각할 정도로2015년 부터 그 조짐은 있었는데 지금은 손쓰기 늦었지. 한 20년 넘게 꾸준한 정책이 잇어야 복구 가능할거라 본다', 12, 0), ('참 바보같은 고민들만 했군요! 개발자가 모자라게 된 이유의 첫번째도 두번째도 모두 처우가 열악했기 때문입니다. 돈만 많이 줘보세요~ 교육기관 만들고자시고 할 필요따위 없습니다. 알아서들 날을 새서라도 독학해서 뛰어들겁니다. 참 한심하군요!', 3, 0), ('양성하면 뭐하냐? 기업들이 외주줘서 하청만들어 단가 후려치는데... 직장이 안정적이어야 사람이오지... 지금처럼해서는 인력 안늘어난다. 누구 인생 망치려고.', 2, 0), ('40넘으면 폐물 취급하는 풍토가 이 사단의 시작 아닌가. 이제 좀 나아질려나 .', 2, 0), ('그러니까 중급같은 초급 찾는다는 말이지? 이게 말이여 방구여.', 2, 0), ('개발자는 40대 중반까지만 대우받는거고 50대부터는 완전 쓰레기통 취급에 정년 이후 뭐할까 고민. 이게 우리나라 it 현실임.. 그러니 우리나라에서는 아직까지 전문직이 대우받음. 하지만 국가경쟁력은 하위.', 2, 1), ('신입가격에 혼자서 일할수 있는 중급 개발자를 원하니 인력이 없지 신입에 투자할 맘은 없구 단가는 깍고싶고 그러니 인력이 안구해 지는거다 인력 단가만 높게 쳐주면 의사 변호사 처럼 인력은 자연스레 몰려 온다', 1, 0), ('싸구려 소모품 취급하니까 있던 사람들도 떠나죠.', 1, 0), ('초 중급 소프트웨어 인력 부족을 해소할 가장 좋은 대책: 소프트웨어 인력의 연봉을 2배로 인상하면 됨.', 0, 0), ('중고급만 원하니까 사람이 없는거다.. IT대기업말고 경험도 없이 대학졸업한 전공자가 뭔재간으로 프로젝트를 리딩할까.. 그러면서 저임금으로 싸게 쓸라고 하니까 악순환이 반복되지..', 0, 0), ('개발자가 부족한게 아니다.개발자가 부족하다는 회사가 있다면 회사에서 제공하는처우를 생각해 보라.하찮은 기업들의 이야기만 듣고 기사를 적지말고개발자들을 만나서 이야기 해보고 기사를 적기 바란다.', 0, 0), ('업계 마인드부터 바꿔야된다. 사람취급을 안해주는데 누가 일하고싶겠냐', 0, 0), ('국가발전에 전혀 도움 안되는 서울대법대와 행정과 정외과 신방과 들을 세정시로옮겨라. 수도권규제법 때문에 반도체학과 정원을 한명도 못늘린다. 저런 널절한 과들을 지방으로 옮기고 그만큼 반도체관련과들 정원을 늘려야 한다.', 0, 0), ('초급~중급 모자르다? 값싼 인력만 찾고 있네. 야근수당도 없다. 그냥 갑을병정 중. 잘해야 을이고.. 처우 열악하다.', 0, 0), ('IT쪽 고급개발자들도 너무 근무환경이 열악하다. 매일 9 to 8~9 인데, 몇 년 하다가 그만두고 그냥 다른 일로 빠지는 경우 수두룩한다.', 0, 0), ('미취업자 실업자 개나 소나 단기간에 교육시켜 써먹으려하니 양성이 되겠냐? 싼 임금에 중소기업 가봤자 성과 안나와 입사 퇴사만 반복하고 실업 수당이나 퍼주고.', 0, 0), ('한마디로 헛소리만 쓰고 있네. 문제는 현댸도 기아도 아닌 대우야! 멍충이들아! 대우만 잘해줘봐라. 개발인력 남아돈다.', 0, 0), ('그동안 쭉 그만은 정부지원금들이 대학에서 다 없어졌네... 대학이 장사를 하니까 그렇지요.... 에휴....', 0, 0), ('장기적관점에서방법은하나뿐이다. 초중고 교육에 영어만큼 토딩이중요해지면된다. 실제로 영어보다 더 중요하다.', 0, 0), ('여러분 개발자 돈 많이주고 좋아요. 컴퓨터로 할 수 있는 직업중에 최고 멋있는 직업 입니다.', 0, 3)]</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -666,7 +666,7 @@
         <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -683,7 +683,7 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -700,7 +700,7 @@
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -717,7 +717,7 @@
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -734,7 +734,7 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -751,7 +751,7 @@
         <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -768,7 +768,7 @@
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -785,7 +785,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -802,7 +802,7 @@
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -819,7 +819,7 @@
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -836,7 +836,7 @@
         <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -850,10 +850,10 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -870,7 +870,7 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -887,7 +887,7 @@
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -904,7 +904,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -921,7 +921,7 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -938,7 +938,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -955,7 +955,7 @@
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -972,7 +972,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -989,7 +989,7 @@
         <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1006,7 +1006,7 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1023,7 +1023,7 @@
         <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1040,7 +1040,7 @@
         <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1057,7 +1057,7 @@
         <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1074,7 +1074,7 @@
         <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1091,7 +1091,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1105,10 +1105,10 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1122,10 +1122,10 @@
         <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1139,10 +1139,10 @@
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/crawling_data/comments1_5.xlsx
+++ b/crawling_data/comments1_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>path</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>reaction</t>
+  </si>
+  <si>
+    <t>number of comments</t>
   </si>
   <si>
     <t>comments</t>
@@ -615,13 +618,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,515 +637,608 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" t="s">
         <v>75</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/crawling_data/comments1_5.xlsx
+++ b/crawling_data/comments1_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>path</t>
   </si>
@@ -31,223 +31,283 @@
     <t>comments</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0010498549</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002222122</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=002&amp;aid=0002188795</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0010495347</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0012383807</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=119&amp;aid=0002492561</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=417&amp;aid=0000693652</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004546086</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012384169</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002943672</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=421&amp;aid=0005345961</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002221830</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=011&amp;aid=0003909808</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=421&amp;aid=0005342640</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004585226</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010492161</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002943855</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004900951</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=469&amp;aid=0000603795</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=004&amp;oid=366&amp;aid=0000715268</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=629&amp;aid=0000080799</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002943237</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010491911</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004545171</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002943850</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=009&amp;aid=0004792597</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012369878</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=417&amp;aid=0000691032</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002943342</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002221013</t>
-  </si>
-  <si>
-    <t>'배민' 찾은 기재차관 "SW 인력, 기업 주도로 키울 것"</t>
-  </si>
-  <si>
-    <t>[이슈진단+] SW인력 가뭄 극심, 정부 정책 뭐가 있나</t>
-  </si>
-  <si>
-    <t>광주 북구, 3개 고교서 ‘AI·SW 창의융합 코딩교육’ 진행</t>
-  </si>
-  <si>
-    <t>생산성본부, 폴리텍·SW산업협회와 AI 인재 양성 협약</t>
-  </si>
-  <si>
-    <t>SBA, 16일까지 '싹' 주니어 SW개발자 채용 관심 기업 모집</t>
-  </si>
-  <si>
-    <t>이재용의 SW 인재 양성 의지 담긴 SSAFY 6기 모집...14일까지</t>
-  </si>
-  <si>
-    <t>국립부산과학관, 과학적 상상력 더하는  교육프로그램 개강</t>
-  </si>
-  <si>
-    <t>경북도, AI인재 키운다…농업인·고교생 교육</t>
-  </si>
-  <si>
-    <t>세종교육청 '가족이 함께하는 소프트웨어 교육체험' 운영</t>
-  </si>
-  <si>
-    <t>770억원 규모 나이스 SW 시장 열린다... 이달 응용SW 발주</t>
-  </si>
-  <si>
-    <t>이노베이션 아카데미 4기 250명 입교…"AI·SW 인재 양성 박차"</t>
-  </si>
-  <si>
-    <t>한국알테어, 교육기관에 데이터분석SW 무상 제공</t>
-  </si>
-  <si>
-    <t>생산성본부·폴리텍대학·SW산업협회, AI 기술인재 양성 업무협약</t>
-  </si>
-  <si>
-    <t>한국과학창의재단, SW·AI 수업 우수사례 공모전 개최</t>
-  </si>
-  <si>
-    <t>과학창의재단, SW·AI 수업 우수사례 공모전 열어</t>
-  </si>
-  <si>
-    <t>우송대, 빅데이터 분석 교육과정 운영 미국 업체와 협약</t>
-  </si>
-  <si>
-    <t>이티에듀·메카솔루션, 미래교육 콘텐츠와 물류서비스 강화 위해 '맞손'</t>
-  </si>
-  <si>
-    <t>동명대, 시니어 컴퓨터기초 무상 교육 … SW중심대학사업단·남구노인복지관 공동 시행</t>
-  </si>
-  <si>
-    <t>KT, 경북교육청과 초·중·고·특수학교에 무선망 구축</t>
-  </si>
-  <si>
-    <t>서울산업진흥원(SBA), 주니어 SW개발자 채용 기업 모집</t>
-  </si>
-  <si>
-    <t>KT·한양대, AI 실습교육 강화 협력 "국내 AI 인재 양성 박차"</t>
-  </si>
-  <si>
-    <t>[SW-플랫폼 동반성장]SW산업협회, SaaS 지원 강화로 산업 경쟁력 높인다</t>
-  </si>
-  <si>
-    <t>경남 미래교육지원플랫폼 '아이톡톡'에 빅데이터·AI 날개 단다</t>
-  </si>
-  <si>
-    <t>C3.ai, 글로벌 엔터프라이즈 인공지능(AI) SW의 대명사</t>
-  </si>
-  <si>
-    <t>'AI시대 미래교육 혜안을 듣는다'…19일 대한민국교육박람회 토크콘서트</t>
-  </si>
-  <si>
-    <t>[Edu News] 그린컴퓨터아카데미, 문과생 맞춤 IT개발 교육…'네카라쿠배당토' 취업 도전하세요</t>
-  </si>
-  <si>
-    <t>IT 개발자 꿈꾸는 유학파도 입학…폴리텍 교육과정 인기</t>
-  </si>
-  <si>
-    <t>네이버클라우드 타고 중소SW기업 글로벌 진출… ‘SaaS N’ 컨소시엄 출범</t>
-  </si>
-  <si>
-    <t>DIP, 퓨전소프트 등 SW기업 4곳과 SW핵심인재양성 업무협약</t>
-  </si>
-  <si>
-    <t>SW산업협회, 한국전력공사 SW 특화 전문 교육 실시</t>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=417&amp;aid=0000711536</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=009&amp;aid=0004819452</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=031&amp;aid=0000608724</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002685160</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002955481</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=629&amp;aid=0000092486</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004570130</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004610748</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002954121</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012494867</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=009&amp;aid=0004816525</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0012493647</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=014&amp;aid=0004666281</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=015&amp;aid=0004570801</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002955222</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=005&amp;aid=0001452539</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002954113</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005443652</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010579760</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=025&amp;aid=0003113991</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004608233</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=015&amp;aid=0004570797</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004609975</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004608558</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=243&amp;aid=0000014113</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=005&amp;aid=0001452032</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002954000</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002954498</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0012473387</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=366&amp;aid=0000736950</t>
+  </si>
+  <si>
+    <t>한전KDN, 신안 비금·도초서 AI·SW코딩캠프</t>
+  </si>
+  <si>
+    <t>AI·SW인재 키우고 디지털 뉴딜 성과낼 것</t>
+  </si>
+  <si>
+    <t>[일문일답] 임혜숙 장관 "'SW·AI·과학 우수인재' 적극 육성"</t>
+  </si>
+  <si>
+    <t>임혜숙 "디지털뉴딜 성과 가속화… AI·SW인재 집중양성"</t>
+  </si>
+  <si>
+    <t>테크빌교육, 글로브포인트와 VR교육의 공교육 시장 진출을 위한 MOU 체결</t>
+  </si>
+  <si>
+    <t>광주시교육청, 전체학교 일반교실 무선망 구축 완료</t>
+  </si>
+  <si>
+    <t>취업률 70%…이재용이 직접 챙긴 삼성 SW교육 정원 확 늘린다</t>
+  </si>
+  <si>
+    <t>전남교육청, 섬으로 찾아가는 AI·SW교육 실시</t>
+  </si>
+  <si>
+    <t>맞춤형 SW인재 양성, 산학 협력 교육프로그램 나온다</t>
+  </si>
+  <si>
+    <t>동명대 미국 캘리포니아주립대 6주간 비대면 SW융합교육</t>
+  </si>
+  <si>
+    <t>"취준생 희소식"…이재용 공들인 SW사관학교 年 2000명 뽑는다</t>
+  </si>
+  <si>
+    <t>삼성전자 '2021 삼성 주니어 SW 창작대회' 개최</t>
+  </si>
+  <si>
+    <t>"청소년 SW 꿈나무 육성" 삼성전자, 7번째 '주니어 SW 창작대회' 개최</t>
+  </si>
+  <si>
+    <t>서울대 총장도 KAIST 총장도…"AI·SW 과목, 대입에 반영하라"</t>
+  </si>
+  <si>
+    <t>조선대 SW중심대학사업단, '장애인 맞춤형 창업특화교육' 업무협약</t>
+  </si>
+  <si>
+    <t>김석준 부산교육감 “부산교육을 미래교육으로 대전환”</t>
+  </si>
+  <si>
+    <t>경북대SW교육센터, 경북지역 교육지원청 3곳과 AI 디지털 역량 강화 교육</t>
+  </si>
+  <si>
+    <t>'취업률 68%' 삼성 청년SW아카데미, 교육생 2배 늘린다</t>
+  </si>
+  <si>
+    <t>[교육소식]부산학생교육문화회관, 시설 재구조화·새단장 등</t>
+  </si>
+  <si>
+    <t>“정부+상의+삼성 힘 합쳤다” 연 2300명 뽑아 월 100만원 주고 SW 교육</t>
+  </si>
+  <si>
+    <t>삼육대, SW중심대학 사업 워크숍 열어</t>
+  </si>
+  <si>
+    <t>주요국 SW교육, 韓보다 5년 앞섰다</t>
+  </si>
+  <si>
+    <t>아이퀘스트, SW개발보안 전문기업 ㈜트리니티소프트 인수</t>
+  </si>
+  <si>
+    <t>'이재용의 동행 비전' SW아카데미, 2300명…두 배로 늘었다</t>
+  </si>
+  <si>
+    <t>“10% 아닌 90%를 위한 교육시스템 만들어야 할 때”</t>
+  </si>
+  <si>
+    <t>삼성 청년SW아카데미, 내년 교육생 대폭 늘린다</t>
+  </si>
+  <si>
+    <t>배재대, 미래인재 양성 집중...AI·SW중심 교육체계 구축</t>
+  </si>
+  <si>
+    <t>[SW개발보안, 디지털뉴딜 시작]〈하〉중기 SW보안약점 진단, 정부 지원 내용은?</t>
+  </si>
+  <si>
+    <t>서울산업진흥원, 내달 12일까지 SW 교육 '싹' 3기 모집</t>
+  </si>
+  <si>
+    <t>KT, 국내 SW기업 클라우드 전환 지원…“디지털전환 앞장”</t>
   </si>
   <si>
     <t>[0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0, 16, 3]</t>
-  </si>
-  <si>
     <t>[1, 0, 0, 1, 0]</t>
   </si>
   <si>
+    <t>[1, 0, 0, 4, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0, 4, 0]</t>
+  </si>
+  <si>
+    <t>[3, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[41, 2, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>[672, 11, 3, 22, 7]</t>
+  </si>
+  <si>
+    <t>[6, 0, 0, 0, 0]</t>
+  </si>
+  <si>
     <t>[4, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[0, 1, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>[3, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>[5, 0, 0, 1, 0]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0]</t>
+    <t>[14, 0, 0, 7, 0]</t>
+  </si>
+  <si>
+    <t>[59, 4, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[7, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[14, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>[8, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[20, 1, 0, 6, 0]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[('초급과 중급사이..? 그자리에 고급을 쓸 마음은 없는거고? 그냥 싸게 일해줄 사람을 찾는거지 이런 마인드면 앞으로도 개발자는 계속 부족할것', 38, 0), ('마인드봐라 초급과 중급사이 ㅋㅋㅋㅋㅋ 그냥 사람은 필요한데 싸게 부려먹고싶다는 중소기업은 흔한 거지근성이다. 니네 그 심보 안버리면 계속 인력난있을 거다. 직원은 돈에 쪼들리는데 사장과 낙하산으로 앉은 사장 가족 혹은 지인은 외제차 끌고다니고...', 21, 0), ('내일배움카드 계좌돈 뜯어내려고 코딩교육 업자들 넘처남 목표는 고용노동부 세금 뜯어내는거지 코딩교육이 거기 오는 애들 수준도 코딩 이해할 머리 가진 사람들은 애초에 오지도 않고', 12, 0), ('상위 10%의 개발자는 이미 우리나라 떠났지 ㅋ애초에 알고리즘 문제 정답 비율만 봐도 외국이랑 우리나라 거진 10%차이나는데애초에 누구나 할수잇다는 생각 자체가 글러먹은거임상위 개발자 차이는 외국과 극명하다 심각할 정도로2015년 부터 그 조짐은 있었는데 지금은 손쓰기 늦었지. 한 20년 넘게 꾸준한 정책이 잇어야 복구 가능할거라 본다', 12, 0), ('참 바보같은 고민들만 했군요! 개발자가 모자라게 된 이유의 첫번째도 두번째도 모두 처우가 열악했기 때문입니다. 돈만 많이 줘보세요~ 교육기관 만들고자시고 할 필요따위 없습니다. 알아서들 날을 새서라도 독학해서 뛰어들겁니다. 참 한심하군요!', 3, 0), ('양성하면 뭐하냐? 기업들이 외주줘서 하청만들어 단가 후려치는데... 직장이 안정적이어야 사람이오지... 지금처럼해서는 인력 안늘어난다. 누구 인생 망치려고.', 2, 0), ('40넘으면 폐물 취급하는 풍토가 이 사단의 시작 아닌가. 이제 좀 나아질려나 .', 2, 0), ('그러니까 중급같은 초급 찾는다는 말이지? 이게 말이여 방구여.', 2, 0), ('개발자는 40대 중반까지만 대우받는거고 50대부터는 완전 쓰레기통 취급에 정년 이후 뭐할까 고민. 이게 우리나라 it 현실임.. 그러니 우리나라에서는 아직까지 전문직이 대우받음. 하지만 국가경쟁력은 하위.', 2, 1), ('신입가격에 혼자서 일할수 있는 중급 개발자를 원하니 인력이 없지 신입에 투자할 맘은 없구 단가는 깍고싶고 그러니 인력이 안구해 지는거다 인력 단가만 높게 쳐주면 의사 변호사 처럼 인력은 자연스레 몰려 온다', 1, 0), ('싸구려 소모품 취급하니까 있던 사람들도 떠나죠.', 1, 0), ('초 중급 소프트웨어 인력 부족을 해소할 가장 좋은 대책: 소프트웨어 인력의 연봉을 2배로 인상하면 됨.', 0, 0), ('중고급만 원하니까 사람이 없는거다.. IT대기업말고 경험도 없이 대학졸업한 전공자가 뭔재간으로 프로젝트를 리딩할까.. 그러면서 저임금으로 싸게 쓸라고 하니까 악순환이 반복되지..', 0, 0), ('개발자가 부족한게 아니다.개발자가 부족하다는 회사가 있다면 회사에서 제공하는처우를 생각해 보라.하찮은 기업들의 이야기만 듣고 기사를 적지말고개발자들을 만나서 이야기 해보고 기사를 적기 바란다.', 0, 0), ('업계 마인드부터 바꿔야된다. 사람취급을 안해주는데 누가 일하고싶겠냐', 0, 0), ('국가발전에 전혀 도움 안되는 서울대법대와 행정과 정외과 신방과 들을 세정시로옮겨라. 수도권규제법 때문에 반도체학과 정원을 한명도 못늘린다. 저런 널절한 과들을 지방으로 옮기고 그만큼 반도체관련과들 정원을 늘려야 한다.', 0, 0), ('초급~중급 모자르다? 값싼 인력만 찾고 있네. 야근수당도 없다. 그냥 갑을병정 중. 잘해야 을이고.. 처우 열악하다.', 0, 0), ('IT쪽 고급개발자들도 너무 근무환경이 열악하다. 매일 9 to 8~9 인데, 몇 년 하다가 그만두고 그냥 다른 일로 빠지는 경우 수두룩한다.', 0, 0), ('미취업자 실업자 개나 소나 단기간에 교육시켜 써먹으려하니 양성이 되겠냐? 싼 임금에 중소기업 가봤자 성과 안나와 입사 퇴사만 반복하고 실업 수당이나 퍼주고.', 0, 0), ('한마디로 헛소리만 쓰고 있네. 문제는 현댸도 기아도 아닌 대우야! 멍충이들아! 대우만 잘해줘봐라. 개발인력 남아돈다.', 0, 0), ('그동안 쭉 그만은 정부지원금들이 대학에서 다 없어졌네... 대학이 장사를 하니까 그렇지요.... 에휴....', 0, 0), ('장기적관점에서방법은하나뿐이다. 초중고 교육에 영어만큼 토딩이중요해지면된다. 실제로 영어보다 더 중요하다.', 0, 0), ('여러분 개발자 돈 많이주고 좋아요. 컴퓨터로 할 수 있는 직업중에 최고 멋있는 직업 입니다.', 0, 3)]</t>
+    <t>[('고등학교 가짜 논문들이나 어떻게 해봐라. 큰 일 하려 하지마', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('임혜숙 전라도 말조개가, 무능한게 욕심만 개,돼지처럼 많고, 권력질만 좋아해서 국가와 세상에 재앙 시초란 증거로, 퀴리 부인을 죽인걸 봐서, 임혜숙 전라도 개집애한테 쇠파이프로 태형 줬다! 표면역학선 김대중이 핵돈ㅇ을 안 추징하고 찬양하는 전라도 사람을 "전라도 개,돼지"로 간주해서, 매일 전라도를 쇠파이프로 잡아 죽이고 있다! 전라도 개,돼지들이 문재인 살인범더러 동부 구치소를 죽인걸 "검찰 개혁" 하며 찬양해서, 살인범 개,돼진걸 증거로 봤다!------표면역학자', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('좋네요.', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('이런것을 교육부 고용노동부에서 해야하는데 이런 교육 사업은 할 생각이 없고 근로시간규제 최저임금인상 기업 부담만 주는 것만 하려고 하니 뭐가 되겠어 재앙이지 시장경제 개념이 저리도 없을까? 문재앙아 매년1월에 하는 CES라도 보고 다녀라. 모르면 좀 배우던가', 35, 2), ('삼성전자 응원합니다!', 13, 3), ('문재앙이 100조 가까운 돈을 청년실업문제로 쳐 발랐는데 그돈 다 어디로 갔나? 흔적도 없고 실업자는 더 늘어나고 차라리 그돈을 개개인에게 나눠줬으면 효과가 수백배나 되었겠다.', 10, 0), ('연령제한도 풀고 더 늘려요', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('어디있는 대학인감? 듣도 보도 못한 대학이 친미로세!', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('재용이 형좀 풀어줘라. 솔직히 재용이 형은 태어나서 금수저 물었다보니 아비 명도 거역하기 힘들었을거 아니냐. 삼성 저격수 김용철도 재용이형 인성이 좋다고 하고...삼성도 여러가지로 기여하는데...', 901, 29), ('어깨띠 두르고 서있는 공공근로나 만드는 문재인. 진짜 필요한 일자리 창출하는 이재용. 누가 대한민국의 리더인가?', 771, 10), ('삼성이 진짜 대한민국의 거목이다. 다른 기업들이 흉내내기 어려운 일들을 해내니. 중소기업 컨설팅으로 코로나때 기여한것도 그렇고. 훌륭하다.', 339, 6), ('누가대통령인지 이제 분간이 안가네국가국민을 위해 좋은일만하니..', 196, 9), ('역시 삼성이구나...', 126, 4), ('좋은 소식. 청년들에게 푼돈의 지원금보다 미래를 보장되는 좋은 일자리를 만들어 주니 감동이다. 고기를 잡아서 줄것이 아니라 잡는 방법슬 알려주면 된다는 탈무드의 명언이 생각이 난다. 부탁하건데 이재용을 조속히 석방하라.', 56, 1), ('누구아들은 국민세금인지원금이나 타먹고 자랑질이고 누구아들은 기부하고 인재양성해도 감옥에 가있고 참 비교가되네유 ㅎㅎ', 36, 2), ('대기업이 이런 프로그램을 운영하는걸 적극 환영한다. 사실 대학교육은 현장에서 별 도움이 안되는 경우가 많은데 기업에서 청년들에게 실질적인 도움이 되는 좋은 프로그램을 만들었다고 본다. 내로남불당도 엉터리 법안으로 국민과 기업 그만 괴롭히고 시장친화적인 법안 좀 만들어봐라.', 32, 0), ('삼성과 이재용 욕하는 사람들 특징이 잘못한게 모냐고 물어보면 말잘못함 하도 좌파들이 선동해서 뇌속에 삼성나쁨 이런거만 박혀있음', 28, 2), ('자본주의 의 핵심은 기업과 노동아닌가 현재는 민노총만 득세하니국가균형발전 난망하다 정권욕에기업 과 자본가 죽어난다 철부지들삼성 현대 엘지 대단한 국부다정권바뀔때마다 곤욕을치루니국력낭비다 이부회장 사면 강추다', 26, 0), ('쓰레기줍기 지하철에서 멀뚱이 서있기같은 것에 돈쓰지말고 이런데 세금 써라', 21, 1), ('남의 것을 빼앗아야 한다는 정책부터가 문재인은 틀렸다. 나도 남처럼 잘사는 사회를 추구해야 한다. 윤석열은 압도적 지지로 당선될 수밖에 없다. 자유민주주의 시장경제가 옳은 정책이기 때문이다.', 18, 1), ('어께띠두루고 형광조끼. 입고 비닐봉지들고 찝게들고 삼삼 오오 모여 골목길누비는 어른신들 일자리창출 이것도 취업에들어가나 이란마인드로국가를 운용하는 우두머리가 있는한 미래가 암울하다', 15, 0), ('진짜대통령은 감옥에 있고 가짜 대통령이 설쳐대면서 나라를 망치고 있다.', 16, 3), ('대기업이 나라를 살린다. 기업은 1류 , 근로자는 2류, 공무원은 3류, 정치인은 4류여서 큰 문제다.', 16, 3), ('문재인이 엉뚱한데 삽질하고 삼성, 대기업이 뒷정리하네.', 12, 0), ('모처럼 좋은 소식 정부 지원 사업중 제일 성과가 기대 되는 사업이다.', 8, 0), ('이런데도 이재용감옥에 넣고 천학적인 상속세 때리는 정부!!', 7, 0), ('이재용은 왜 사면 안해주는건데?문OO은 대체 국민의 70%이상이 사면을 원하는데 대체 뭔 생각인건지', 7, 1), ('삼성이 대한민국의 경제 사회 문화 등 모든 분야에서 막대한 공헌 활동으로 미래를 개척하고 있을 때 문재인 일당은 무엇을 하고 있었는가. 죄없는 재벌 총수를 가두어 놓고 듣도보도 못한 포퓰리즘과 탈원전을 내세워 나라를 팔아 먹고 있으며 정의로운 대한민국에 불공정한 사회를 심었으니 이런 살벌한 독재가 과거에 있었던가.', 5, 0), ('무능한 똥팔육 주사파 빨갱이들이 못한 정책 기업이 대신하니 또 규제 들먹거리고 평등 나불거리며 법으로 막지왜?', 5, 0), ('문가야, 이런거 보면 안창피하냐? 대통자리 꿰차고 앉아 니가 하는 일이 뭐냐? 개똥같은 아집 그만 부리고 재용이 얼른 풀어주자.', 5, 1), ('삼성 한국놈들 채용하면 망한다 저기 바다건너 미국가서 채용 해서와라 그래야 삼성이 더 크게발전 한다 꼭~명심해라 여기는 노조때문에 바로 망한다~~~', 5, 1), ('삼성이 세계적인 글로벌 기업으로 도약하기 위해서는 절대 호남을 멀리해야한다', 4, 0), ('■■■■ 비정규직은 목소리 크다고 정규직으로 바로 전환시키고, 정말 처절하게 이악물고 공채 준비하는 청년들은 정규직 자리가 없어서, 고작 취업률 숫자 올릴려는 꼼수로 이용하는 2~3개월 인턴이나 기간제만 수만개 뽑으면서 일자리 창출이라는 명목에 청년들은 비참하게 희생당하고 있음. 2~3개월 알바보다도 못한 차리에 청년들이 희생당하고 또 비정규직분들 정규직 자리 마련해주니 청년들이 희생당하고 이런데도 분하지 않는가요? 단지 취업률 숫자 올려주는 용도로, 청년들이 수만개 2개월 기간제, 인턴에 쓰이는 것에 만족해야하나요?', 4, 0), ('역시 삼성전자다역시 이재용이다.', 4, 0), ('윈윈이네요. 정말 탁월한 방법입니다.', 4, 0), ('이쯤되면 문씨랑 이씨 방 바꿔야 되는 거 아닌가요?', 4, 0), ('하면 뮈해 얼굴 비춰 69,000,000받는 문준용도 있잖아.젊은 청춘들 더 분발해', 4, 1), ('공무원이나 늘이는 문.이재명 같은자가 뭘할수있을까', 3, 0), ('역시 삼성.. 각오하라..호남정치&amp;운동권', 3, 0), ('삼성 단물 다빨아먹고 총수 감옥에 집어넣는 미친 정부', 3, 0), ('풀어줘라 이 대깨문들아 적폐는 너네들이다', 3, 0), ('이재용 그만 풀어줘라', 3, 0), ('일자리는 기업이 만드는거야 알겠어 문재앙씨?', 3, 0), ('대기업은 적폐라고? 문재인 보다 나은거 아니야?', 3, 1), ('정부는 안하고 삼성이', 2, 0), ('삼성 이재용 부회장이 더 미운털 박히겠네? 삼성이 미워서 재용이를 감옥에 처박아 놨는데 깜빵에 있는 재용이가 밖에 있는 권력자보다 더 칭찬을 받으니 재앙이에게 미운짓만 골라 하는구나! 오~~통재라! 재용이 나오기가 글렀구나.', 2, 0), ('역시 쓰는 돈의 가치가 다르다. 공무원 연금으로 일시직 땜빵직에 돈 날리는 좌파들 보면 한심하기 그지없다.', 2, 0), ('이게.일자리창출이다 문가야', 2, 0), ('이게 바른정신을 가진사람의 사고다.대학이 남아도는 세상에 한전대학이나 만드는 정권이 제정신인지', 2, 0), ('삼성은 정부와 손잡지 않았으면 좋겠네.이정부와 손잡으면 망한다', 2, 0), ('삼성때문에 뜨는나라가 총수를 빵에억지로 넣어놓고 국민모두가 뭐하는 작태인지 정말 무슨잘못이 있다고 으이구', 2, 0), ('학교에서 ai교육한다하면서 아직도 알파고 예기하는데 차라리 삼성AI 교육이나 밀어줘라', 2, 0), ('깜빵보내고 문 공짜밥먹여주자 문 부하놈들도 깜빵보내자...주사파잡아 북송환추진', 2, 0), ('실질적인 대한민국 대통령, 고 이건희 회장님,이재용 부회장.이재용 부회장이 대통령 선거에 나오셨으면 좋겠습니다.', 2, 0), ('이 과정을 수료한 사람들에게 바라는 건 삼성 커리큘럼이라는 이름값에 빠져서 쓸데없이 콧대만 키우고 현장실무 만만하게, 우습게 보는 일이 없었으면 좋겠다는 거.', 2, 0), ('삼성은 역시 삼성. 진정한 인재개발을 하네요.', 2, 0), ('대한민국이 진정한 선진국 되려면 전라도 외계괴물들을 그것들이 지구에 추방 당하기 전에 서식하던 행성으로 쫒아 내야해.', 2, 0), ('필요할때만 삼성이용해먹으면서.. ㅋㅋㅋ 혜택줄것도 줘야하지않나', 2, 0), ('ㅋㅋㅋㅋㅋㅋㅋ 그냥 이재용 풀어라고 써라', 2, 0), ('삼성이 안 낑기는데가 없구나 잘못한것은 잘못한것이고 잘한것은 칭찬해주자 삼성 화이팅', 2, 0), ('삼성이 보살이다', 2, 1), ('문쩝쩝의 큰잘못 지못나 지잘못을 모르는 아둔함 남의잘못은 크게보여 지질못이 없다 생각하는 많이 모자란생각가진 대통령이 고칠줄도 모르고 답답이 지앞길도 답답해질줄 모르더냐?', 2, 1), ('역시 삼성!', 2, 1), ('정부가 나라망치고 기업이 나라 살리네', 1, 0), ('이게 사회공헌이다. 끊긴 사다리를 잇는 과정.기업이 하는 사회공헌은 채용규모 늘려서 건전한 중산층을 늘리는 것이다.', 1, 0), ('지지정당이랑사상검증미리미리하고뽑기를~', 1, 0), ('정부는 국민등쳐먹고 젊은이들 미래까지 부채로 당겨 뿌리며 자기들끼리 해 쳐먹는데 기업들은 살아남기위해 눈물겨운 고군분투 ㅠ~ 하루 빨리 문재인과 180마리의 도적들을 잡아 죽이자~', 1, 0), ("운동권 정칙꾼들 이렇게 악랄할줄 정말 몰랐다. 세계는 반도체전쟁중인데 삼성 수장 가둬놓고 어쩌자는건지....'.아무리 퍼줘도 나라는 없어지지 않는다는 포퓰리스트 이재명! 정말 이나라 미래가 암울하다.", 1, 0), ('무릎을 탁 치게 하는 좋은 소식 이네요. 이 이름 저 이름 붙인 수당으로 청년들 무기력 하게 만들지 말고 사회 곳곳에 포지셔닝 할 수 있는 이런 지원 정책이 더 많았으면 좋겠어요.', 1, 0), ('일자리는 공공 근로가 최고지요 훠훠훠 공무원 10만명 문가가 했자나 이제 그사람들 월급은 니들이 알아서 내라 쩝쩝', 1, 0), ('이런데다가좀 지원해라무슨지원금 뿌리지말고', 1, 0), ('국가를 위해 필요한 사람이 누구냐 문재인이냐 이재용이냐 필요한 사람은 감옥에 있고 쓰잘데기 없는 인간은 청와대에서 호의호식 쩝쩝거린다', 1, 0), ('문씨가 죽어도 문제 없지만 삼성이 죽으면 대한민국 박살난다. 근데 가야할 깜방은 문씨정부인데 국가위해 필요한 사람이 깜방 가있다. 코로나백신 이회장이 구해온다 해서 책잡아 가둔거다. 지들 무능이 탈로날까봐. 꼭 강력히 심판해야 한다.', 1, 0), ('정권바퀴면 하지', 1, 0), ('생산성 0에 수렴하는 공무원 좀 그만뽑고 기업살려라 본인들은 곧 저승간다고 미래 세대에 빚 퍼주지말고 제발', 1, 0), ('컴공관련은 재능의 영역인데 많은 인재 배출되길 바랍니다.', 1, 0), ('우리나라는 정치인들만 사라지면, 순식간에 세계 1등 국가가 될 듯.', 1, 0), ('문재앙 이 경희대 지잡대 쓰레기보다이재용 하버드가 최고다', 1, 0), ('호남은 삼성이라면 이가는데 그동네에 삼성가전공장이 왜 들어가있나 .', 1, 0), ('역시 삼성밖에 없다 문재앙과 더듬고쑤신당은 무슨 일이 있어도 감방에 쳐넣어야 해', 1, 0), ('역시 삼성이군요 세계적인 기업에 걸맞는 경영철학과 행보~누구와 비교되네요', 1, 0), ('선영향 제대로다 진짜 좀 풀어줘라 문파구리야', 1, 0), ('기존직장인 월급이나 올려줘라 신입연봉이 5년차 직원 연봉이랑 500만원 차이나는게 맞다고보냐 ? 그러니 5년차 경력이 때려치고 나가지 신입들 물가대비 연봉을 올렸으면 기존 열심히일하고있는 직원들 물가인상률 쳐서올려줘야지 어떻해서든 안올릴라고 회사들기를쓰냐 왜안올려줬냐니까 갑회사에서 임금계약 동결이래 ㅋ 대기업이문제지?? 그런거지?? 대기업이 밑에 하청 협력사 중소기업 매년 물가상승률 반영안해주는거지??', 1, 0), ('여기도 문재인 숟가락 얹기 신공 시도하지 않나?', 1, 0), ('삼성이 이끌고 나머지 대기업이 뒤따라가며 협력하면서 나라를 이끄네 청년들에겐 희망을주고 그래서 쩝쩝이랑 떨거지들이 기업 못잡아 먹어 안달났나봄 기업을 쳐야 남조선 인민 공화국으로 성큼성큼 갈텐데', 1, 0), ('역시 자유대한민국하면 세계 적인 간판 삼성', 1, 0), ('재앙이보다 낮네. 노조나 만들줄 알지.', 1, 0), ('국회의원님들... 표심 위해 세금으로 돈놀이 하지말고 이런 것을 해야지요.', 1, 0), ('역쉬~기업다운 기업이네요멋져요', 1, 0), ('너무 좋은선례입니다.', 1, 0), ('기업은 우수한 인재를 찾아내 자기네 회사에 쓸수 있으니 좋을지 몰라도 저렇게 양성된 인력 대부분 중소기업에 가게 되고 "너 아니어도 할 사람 많아"라는 마인드로 임금 최저는 절대 오르지 않아서 결국 잘 나가는 대기업이나 스타트업과 그렇지 않은 중소기업간 연봉 격차만 늘어나게 될거임', 2, 2), ('ㆍㆍ국민은 10 만원 그돈 죠봐야 아무 표시도 안나요 ㆍㆍㆍ 젊은 청년 35세 이하로해서 이런곳에 세금지원 팍팍 하세요', 1, 1), ('취업이 아니라 그냥 일배우는것임...... 그리고 취업은 나라에서 해주는게 아님.. 다들 일자리 나라에 늘려달라고 바보같은 소리좀 그만해라..... 불가능한 일임 일자리를 기업이 늘리는것', 0, 0), ('아침에 노인네들 동사무소와서 띠하나 받고 집게하나 들고 동네쓰레기줍는척 하다 공원에서 막걸리처먹고 대낮에 얼굴시뻘겋게 해서 돌아오곤 힘들어서 못해먹겠다고 지럴하고 퇴근하는 주정뱅이들한테 세금퍼주지말고 재용아재나 석방해줘라', 0, 0), ('차라리 기업인을 대통령으로!못믿을 정치꾼 모두 아웃!', 0, 0), ('몇십조 쏟아붓고 실업자 천지 만드는 문재인보다 이재용이 훨 낫네..', 0, 0), ('결국 희소식은 재드래곤이 만들어주네', 0, 0), ('역시삼성!', 0, 0), ('역쉬 삼성 클라스~~', 0, 0), ('인간적으로 진짜 조금의 뇌만 있더라도 누가봐도 이재용 좀 풀어줘야하는거 아닌가 ?!', 0, 0), ('이거보고 대깨문들은 즈그네 수령 문재인이 위대한 업적 이뤘다고 하겠지', 0, 0), ('경제 대통령 석방해라', 0, 0), ('헐! 문재앙과 더블어 만진당이 70조 가까이 세금을 쏟아 부어도 못하는 것을 감옥에서 해내다니! 역시!', 0, 0), ('소프트웨어 인재가 없는게 아니라 자리가 없다니까 자리만 만들어봐라 알아서 공부해서 온다', 0, 0), ('기업이 관료보다 현실적이고 미래지향적인듯. 우리나라는 정치만 발전하면 세계최고가 될것이다.', 0, 0), ('결국 이재웅 빨아주기', 0, 0), ('진짜 우리나라 삼성 없었음 어쩔뻔~~~~뭐 하나를 해도 맘에 쏙들게 하네^^', 0, 0), ('문재앙은 많을수록 나라 파탄나는데이재용은 어떻게든 나라 살려보겠다고.. 형... 걍 떠나 한국..', 0, 0), ('대학은 왜 거치는 거야? .. 시간낭비, 돈 낭비 없이 고등학교 나와서 바로 들어가면 될걸!', 0, 0), ('문재인 숟갈 올릴건수네', 0, 0), ('결국 삼성이 또 해결하는구만..', 0, 0), ('재용이형 날가져요 청년은아니지만 저런교육 나도받고싶다', 0, 0), ('버텨라. 취업만 힘든게아니다', 0, 0), ('공산당 정부다 그럼 정부에서 모든기업에 급식업체를정해주면 되겟네 그럼 이런 말도 안되는 일은 없겟지', 0, 0), ('의도는 좋은데 돈있고 권력있는 자녀들이 가는 사관학교로 전락 하는 수단이 될수도 있다 예전 우리나라 관례로 볼때 그렇하다', 0, 0), ('총등부터 대학까지 교과 과정에 넣으세요 앞으로 더 많은 인재 필요 합니다', 0, 0), ('주입식 교육으론 개발인재 못만든다...', 0, 0), ('요즘시대에도 자바나 쓰고자빠지니 한국 it에 발전이 있겠냐', 0, 0), ('한전대보다 더 쓸모있음.', 0, 0), ('뭐가 희소식이야 놀고먹는 백수가 백만이 넘어갈거같은데', 0, 0), ('개발 이십년 경력인데 십년만 젊었어도 한번 가보고 싶네', 0, 0), ('그래 일자리는 정부가 만드는게 아니야 기업이 만드는거지. 이미 만든 세금 일자리는 가까운 미래에 핵폭탄으로 날아올거다', 0, 0), ('삼성 SK 포스코가 무능하고 탐욕스런 이 정권 보다 훨낫다', 0, 0), ('자동차가 생기고 점점 마차를 끄는 마부는 없어지고 운전기사가 더 많이 늘었다 이제 AI자율 자동차가 본격적으로 운행하면 운전기사는 점점 줄어들고 AI 엔지니어가 엄청 늘어날겁니다', 0, 0), ('이게 젊은 인재양성에 일자리 창출이라는거다 문재앙씨', 0, 0), ('이미 문재앙정부때 중국으로 핵심기술 다넘기고있는데 ㅋㅋㅋ', 0, 0), ('나이 제한 풀어주면 좋겠다', 0, 0), ('재드래곤 멋지다', 0, 0), ('Dear 삼성 붙을려명 sy 에게 붙여야지..', 0, 0), ('또 잡혀갈라...멀 그렇게 협조 하냐', 0, 0), ('아 졸업자만이네... 아쉽구만', 0, 0), ('봤으면 수학과학못해도 일단 이과가라', 0, 0), ('엄청 삼성에 압박을 가했나보다.', 0, 0), ('실제로 기업체를 다니다 보면30후40초 중반에 희망퇴직 혹은 감원으로 그만두는경우가 많다.이런좋은 교육제도가 있어도 혜택을 받을수 있는경우가 많이없는것같아슬프다.다시도전하고싶어도 나이에걸리고ㅠㅠ 먹고살아야하는데 현실이 참 서글프다.', 0, 0), ('아주 좋은~제도', 0, 0), ('이재용은 재앙의 호구', 0, 0), ('문재인아 손대지 마라', 0, 0), ('이재용이나 풀어 줘라.. 어디다 숟가락 얹구 입빵이아..', 0, 0), ('정말 좋은 실용적인 소프트웨어 교육을 받을 수 있는 곳이네요. 4년제 대학 졸업자만 가능한것이 안타깝지만 기회가 되면 저도 다녀보고 싶어요.', 0, 0), ('경제 공동체냐 내로남불2 아닌가', 0, 0), ('깜방에 쳐넣지 않았나?', 0, 0), ('문재인 문준용 만세문재인 문준용 욕하는개돼지들 정신차렷 ^^', 1, 2), ('용비어천가ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ', 0, 1), ('하아 배나온 아재듦은 틀럭시 아녀 ㅎㅎ', 0, 1), ('제발 좌빠리들에게 도움되는일은 하지말자. 삼성아', 0, 1), ('뒤통수쳤나? 정부와손잡고 ? ㅋㅋ 하고싶을까? 정부넘들이 더웃김 빵에보내고 삥바리 하는것도 아니고 ㅋㅋ', 0, 1), ('재용이가 공들인건 삼성밥이야. 지네 직원들 가지고 밥장사 몰빵시켜 배당금 엄청 챙겨가셨지', 1, 4), ('기레기신문사 삼성빨고, 댓글러들 정부 욕하고...', 0, 3)]</t>
+  </si>
+  <si>
+    <t>[('오 좋다', 0, 0), ('응애 나 애기 개발자', 0, 1)]</t>
+  </si>
+  <si>
+    <t>[('자율적인 AI·SW 교육은 좋습니다. 그런데 자주 바뀌는 입시 정책은 좀 더 고민해주시기 바랍니다. ‘AI자주독립국가’가 되도록 선진국 수준의 정보 교육량을 갖춰야 한다는 말씀은 찬성합니다.', 6, 0), ('넣는건 좋은데 수능을 자격시험으로 하고 니들맘대로 뽑는건 동의 못한다. 대학에선 날로 먹을라고 하지말고 고등교육 시키는것이 아닌가?', 3, 7), ('서울대, 카이스트가 저 난리를 피워데니 사기꾼들 배출이 많은겨... 인성교육과 기초가 되는 과목도 교육이 제대로 안되고 있는 마당에 무슨 AI &amp; SW 를 대입에 반영하냐?? 그건 전문화된 대학교 또는 전문대학에서 학생들이 자유롭게 선택하게 해야지. 더군다나 AI &amp; SW는 필기 보다는 실기 실전이 중요한거 아님??? 영어 실기 시험 높은 애들 데려다놓고 영어로 말하라고 하면 재대로 하니???', 9, 14)]</t>
+  </si>
+  <si>
+    <t>[('삼성이 정부보다 훨씬 잘 하네. 삼성은 일자리 창출, 정부는 일자리 줄이기.', 89, 2), ('이재용이 대통령해야지 문죄인은 깜방가고', 18, 1), ('정부는 시간당 1만원짜리 택배 편의점 배달 알바 적극양성....삼송은 시간당 10만원짜리 창조인력 양성.....죄인아 반성좀 해라....', 11, 0), ('교육비는 국가에서 부담해라. 국가에서 해야 할일을 왜 기업에게 떠 넘기나? 삼성을 못 잡아 먹어 환장 하는 문죄인 정부. 반찬도 마음대로 못주게 하는 문죄인이.', 9, 0), ('이재용님 힘내세요', 3, 0), ('삼성이 정부보다 낫다...이렇게 삼성은 국가위해 헌신하는데 좌파 민주당 세기들은 못잡아 먹어 안달이네...문재앙 같은세기는 일자리 50조 써놓고 전등끄기같은 쓰래기 일회용일자리만 만들었는데...지금 감옥갈 새긴 따로 있구만', 3, 0), ('삼성 만한 그룹이 어디있냐. 세금을 10조 가까이 납부하고. 이놈으 정부야 삼성 좀 그만 괴롭혀라.', 2, 1), ('삼성에서 알바 쥰내게 푸네', 0, 0), ('삼성에서 분사한 네이버봐라. 그기가 회사냐 지옥이냐...코더도 저런데 가면 지옥을 맛본다.', 0, 0), ('한국 교육부가 얼마나 개판이면 일개기업이 한국사회 인력 공급을 후원하냐 좌파교육감들 니들이 한짓이다 잘한다 잘해', 0, 0), ('삼성전자는 하드웨어 기업인데 자기가 왜 소프트웨어 교육을 해. 하던 하드웨어나 잘하지. 뻘짓 하내.삼성은 하드웨어 킹이야. 소프트웨어는 못해!', 0, 2)]</t>
+  </si>
+  <si>
+    <t>[('좌파 빨간 물감만 가득 든 애들 기업에 줘봤자 쓸 수 없는데 무늬만 대학 졸업장 갖고 나와봤자 별 쓸모없는 걸 이제 안 거다. 그 엿같은 교육부는 뭐 하고 자빠졌는 지.', 2, 0), ('삼성전자 응원합니다!', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('이나라 자랑 삼성', 4, 0)]</t>
+  </si>
+  <si>
+    <t>[('양이사님 화이팅~~~', 0, 0), ('현실 진단과 해결 방안이 제대로입니다.', 1, 0), ('폴리텍 파이팅~^^', 1, 0)]</t>
+  </si>
+  <si>
+    <t>[('정부는 기업활동에 개입하지 마라 민간 주도의 기업적 교육 프로젝트에 참견하고 규제하고 자신들의 업적처럼 과시하고 슫가락 얹는 얍삽한 공산당 정치는 이제 그만좀 하시라 너무 지겹고 얕은 생색내기 수법, 기업 목덜미 붙들고 요구하는 수법이 이제 눈에 보여지는 느낌! 징하다 징해!!', 13, 1), ('청년 표심 때문에 또 기업들 조졨구나 군사독재 시절하고 다든게 뭐야?', 8, 2), ('중.장년층도해주면 안되나?', 2, 1), ('제조회사가 별거다하네 조립이나잘해라', 1, 1), ('문재인공공근로랑 저거랑 뭐가나을까', 0, 0), ('교수 조심해', 0, 0), ('삼성은 하드웨어 킹이야. 하드웨어 왕이다이거지. 소프트웨어는 못해.', 0, 0)]</t>
+  </si>
+  <si>
+    <t>[('좋다 빅테이타로 가자', 1, 0), ('변환이고 나발이고 5g는 언제해줄꺼야 인터넷 기가인어넷이라면 메가밖에 나오는건?', 0, 0)]</t>
   </si>
 </sst>
 </file>
@@ -658,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -675,10 +735,10 @@
         <v>66</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -692,13 +752,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -712,13 +772,13 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -738,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -752,13 +812,13 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -772,13 +832,13 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -798,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -812,13 +872,13 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -832,13 +892,13 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -852,13 +912,13 @@
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -872,13 +932,13 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -892,13 +952,13 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -912,13 +972,13 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -938,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -952,13 +1012,13 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -978,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -992,13 +1052,13 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1012,13 +1072,13 @@
         <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1032,13 +1092,13 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1058,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1072,13 +1132,13 @@
         <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1092,13 +1152,13 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1112,13 +1172,13 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1132,13 +1192,13 @@
         <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1152,13 +1212,13 @@
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1172,13 +1232,13 @@
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1192,13 +1252,13 @@
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1212,13 +1272,13 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1232,13 +1292,13 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
